--- a/experiments/capital/bert-base-uncased_15/correct_predictions_17.xlsx
+++ b/experiments/capital/bert-base-uncased_15/correct_predictions_17.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -731,27 +731,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,47 +776,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft antenna satellite signal searching error . Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,57 +851,57 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode .</t>
+          <t>Aircraft Core Board Overheated .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked .</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,21 +947,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B .</t>
+          <t>Aircraft flight control locked .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked .</t>
+          <t>Aircraft flight control obtained by remote controller B .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>Aircraft flight control unlocked .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1067,31 +1067,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1151,37 +1151,37 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1271,27 +1271,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is entering a restricted area .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14-28</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>14-28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13-27</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>13-27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft is tilted</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is tilted</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient . Fly with caution .</t>
+          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,97 +1586,97 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft power insufficient . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1697,141 +1697,141 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
+          <t>Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,21 +1847,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft will automatically descend in nnn .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1931,27 +1931,27 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1961,27 +1961,27 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,26 +1997,26 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2027,51 +2027,51 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
+          <t>Ambient Light too Weak .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>please descend to a safer altitude</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>APAS has been enabled .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Another aircraft is dangerously close</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2087,91 +2087,91 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>please descend to a safer altitude</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>APAS has been enabled .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Auxiliary Bottom Light set to automatic mode .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2237,21 +2237,21 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2267,51 +2267,51 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Battery cell broken , please replace the battery .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Battery cell broken</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2327,46 +2327,46 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Battery cell broken , please replace the battery .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>please replace the battery</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery cell broken , please replace the battery .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Battery cell broken</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2387,21 +2387,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery cell broken , please replace the battery .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>please replace the battery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2417,26 +2417,26 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2447,51 +2447,51 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Battery nnn requires maintenance .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2516,72 +2516,72 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2597,21 +2597,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2627,51 +2627,51 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery: Low Voltage Protection .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2696,42 +2696,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,21 +2747,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2807,61 +2807,61 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2897,16 +2897,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Camera storage full .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2927,16 +2927,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed .</t>
+          <t>Camera storage full .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2951,22 +2951,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject .</t>
+          <t>Cancel Return-to-Home Failed .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2987,21 +2987,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
+          <t>Cannot Identify Subject .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Stick movement detected</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Panorama has stopped</t>
+          <t>Stick movement detected</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3077,21 +3077,21 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
+          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Panorama has stopped</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3167,31 +3167,31 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3227,91 +3227,91 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Command Failed .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Command Failed .</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>17-23</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3356,12 +3356,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>25-33</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3377,51 +3377,51 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3437,101 +3437,101 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3557,21 +3557,21 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3587,11 +3587,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3617,16 +3617,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3647,21 +3647,21 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3677,21 +3677,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3707,86 +3707,86 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3797,21 +3797,21 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3827,21 +3827,21 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Correcting Landing Position .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3857,51 +3857,51 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Critical Low Battery .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3917,16 +3917,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3947,76 +3947,76 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical Low Battery .</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4037,51 +4037,51 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4097,51 +4097,51 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19 .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4157,21 +4157,21 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2 .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4187,51 +4187,51 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65 .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s) .</t>
+          <t>Data Recorder File Index is 19 .</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s)</t>
+          <t>Data Recorder File Index is 19</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4247,21 +4247,21 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s) .</t>
+          <t>Data Recorder File Index is 2 .</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s)</t>
+          <t>Data Recorder File Index is 2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4277,21 +4277,21 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s) .</t>
+          <t>Data Recorder File Index is 65 .</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s)</t>
+          <t>Data Recorder File Index is 65</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4307,21 +4307,21 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4337,91 +4337,91 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 11s) .</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Downlink Restored (after 0m 11s)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>25-28</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 1s) .</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Downlink Restored (after 0m 1s)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 5.6s) .</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downlink Restored (after 0m 5.6s)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4466,22 +4466,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -4496,12 +4496,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4517,226 +4517,226 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Executing waypoint mission .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4757,76 +4757,76 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Exiting GPS mode : Unknown Error .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Exiting GPS mode : Unknown Error .</t>
+          <t>Executing waypoint mission .</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Exiting GPS mode</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4847,16 +4847,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Exited Cruise Control mode .</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4877,51 +4877,51 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Exited Visual Avoidance System .</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4937,21 +4937,21 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4997,51 +4997,51 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5057,11 +5057,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5087,21 +5087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Failed to cancel landing .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5117,21 +5117,21 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5141,97 +5141,97 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Failed to cancel landing .</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5267,16 +5267,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5297,21 +5297,21 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5327,21 +5327,21 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5357,11 +5357,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5387,111 +5387,111 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Flight height too low .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5507,21 +5507,21 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing� not Working .</t>
+          <t>Flight height too low .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing� not Working</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5537,21 +5537,21 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5567,21 +5567,21 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5597,51 +5597,51 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Forward Obstacle Sensing not Responding .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached .</t>
+          <t>Forward Obstacle Sensing� not Working .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Forward Obstacle Sensing� not Working</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5657,21 +5657,21 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5687,21 +5687,21 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Gimbal Recenter .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5717,51 +5717,51 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached .</t>
+          <t>Gimbal nnn pitch axis endpoint reached .</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5777,51 +5777,51 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gimbal Pitch Limit Reached .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gimbal Pitch Limit Reached</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gimbal Recenter .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5837,21 +5837,21 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Gimbal Roll Limit Reached .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Gimbal Roll Limit Reached</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5867,21 +5867,21 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Gimbal Yaw Limit Reached .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5891,27 +5891,27 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5927,16 +5927,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5957,51 +5957,51 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6011,117 +6011,117 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6137,106 +6137,106 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>High Wind Velocity : Fly with caution and ensure the aircraft remains within your line of sight .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>High Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>High Wind Velocity : Fly with caution and ensure the aircraft remains within your line of sight .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6257,21 +6257,21 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6287,16 +6287,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Home Point Recorded .</t>
+          <t>High Wind Velocity : Fly with caution and ensure the aircraft remains within your line of sight .</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>High Wind Velocity</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6317,21 +6317,21 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Home Point Recorded . Taking off .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6347,51 +6347,51 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Home Point Recorded . Taking off .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Image transmission signal lost .</t>
+          <t>Home Point Recorded .</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6407,21 +6407,21 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Impact detected</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6437,21 +6437,21 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6467,21 +6467,21 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
+          <t>Image transmission signal lost .</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Aircraft stopped</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6497,21 +6497,21 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Impact detected</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6527,76 +6527,76 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6617,21 +6617,21 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>In Flight .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>In Flight</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6641,27 +6641,27 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6677,16 +6677,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6707,21 +6707,21 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>In Flight .</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>In Flight</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6737,46 +6737,46 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6797,26 +6797,26 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -6827,21 +6827,21 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Landin .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Landin</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0-0</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6857,16 +6857,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6887,46 +6887,46 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lens not connected .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6947,21 +6947,21 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6971,62 +6971,62 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Lens not connected .</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Loading database failed . Geo-awareness function degraded .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Loading database failed</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7037,46 +7037,46 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Loading database failed . Geo-awareness function degraded .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Locating Landing Point .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7097,21 +7097,21 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Low Power . Aircraft is returning to the Home Point .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7127,21 +7127,21 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Low Power . Aircraft is returning to the Home Point .</t>
+          <t>Locating Landing Point .</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7157,21 +7157,21 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7187,51 +7187,51 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7247,51 +7247,51 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7346,77 +7346,77 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7436,52 +7436,52 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -7496,22 +7496,22 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -7526,22 +7526,22 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -8546,42 +8546,42 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Sensing system is blocked or too close to the obstacle .</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Sensing system is blocked or too close to the obstacle</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8597,21 +8597,21 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle .</t>
+          <t>Sprayer turned ON .</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8627,31 +8627,31 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Sprayer turned ON .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -8666,37 +8666,37 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8726,52 +8726,52 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -8786,22 +8786,22 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -8816,42 +8816,42 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8906,52 +8906,52 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -8966,12 +8966,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -8996,12 +8996,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9026,12 +9026,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>17-19</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
